--- a/medicine/Mort/Cimetière_Golovinskoïe/Cimetière_Golovinskoïe.xlsx
+++ b/medicine/Mort/Cimetière_Golovinskoïe/Cimetière_Golovinskoïe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Golovinsko%C3%AFe</t>
+          <t>Cimetière_Golovinskoïe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Golovinskoïe (en russe : Головинское кладбище) est une nécropole de Moscou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Golovinsko%C3%AFe</t>
+          <t>Cimetière_Golovinskoïe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans le district municipal Golovinski dans le district administratif nord de Moscou.. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Golovinsko%C3%AFe</t>
+          <t>Cimetière_Golovinskoïe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de l'ancien village de Golovino.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Golovinsko%C3%AFe</t>
+          <t>Cimetière_Golovinskoïe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été fondé en 1951 sur les 15 ha du parc de l'ancien monastère Notre-Dame de Kazan du village de Golovino qui en 1960 a été inclus dans le territoire de la capitale. Le cimetière en tient son nom.
-Sur le territoire du cimetière se trouve la cathédrale du Saint-tsar Nicolas (храм Святого царя Мученика Николая II)[1].
+Sur le territoire du cimetière se trouve la cathédrale du Saint-tsar Nicolas (храм Святого царя Мученика Николая II).
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Golovinsko%C3%AFe</t>
+          <t>Cimetière_Golovinskoïe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Personnalités inhumées au cimetière Golovinskoïe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Arosseva (1925-2013), actrice
 Eugeni Babitch (1921-1972), joueur de hockey sur glace et de football
